--- a/final database.xlsx
+++ b/final database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,247 +24,320 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>列名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户表customer－－entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>固话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>省份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>详细地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司表company－－entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司简称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人、公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强烈建议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>组织机构代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户联系人employee－－entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不可重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订单id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>产品id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>甲公司id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>乙公司id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图纸id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下单日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交货日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订单表orders－－entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>产品表product－－entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行业id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业2</t>
+  </si>
+  <si>
+    <t>行业3</t>
+  </si>
+  <si>
+    <t>行业4</t>
+  </si>
+  <si>
+    <t>行业5</t>
+  </si>
+  <si>
+    <t>行业6</t>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件2</t>
+  </si>
+  <si>
+    <t>部件3</t>
+  </si>
+  <si>
+    <t>部件4</t>
+  </si>
+  <si>
+    <t>部件5</t>
+  </si>
+  <si>
+    <t>部件6</t>
+  </si>
+  <si>
+    <t>部件7</t>
+  </si>
+  <si>
+    <t>产品Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如:激光圆锯片基体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -361,35 +439,38 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -398,18 +479,25 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -735,43 +823,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,13 +908,28 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -843,15 +954,24 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -872,18 +992,27 @@
       <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>57</v>
+      <c r="N4" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -903,14 +1032,23 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2"/>
@@ -931,14 +1069,23 @@
         <v>44</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2"/>
@@ -952,12 +1099,21 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -977,12 +1133,19 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -1004,265 +1167,290 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="5" t="s">
-        <v>52</v>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="K21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" s="5" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1270,14 +1458,14 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/final database.xlsx
+++ b/final database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>列名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -245,11 +245,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>行业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业2</t>
+  </si>
+  <si>
+    <t>行业3</t>
+  </si>
+  <si>
+    <t>行业4</t>
+  </si>
+  <si>
+    <t>行业5</t>
+  </si>
+  <si>
+    <t>行业6</t>
+  </si>
+  <si>
+    <t>整件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部件1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部件2</t>
+  </si>
+  <si>
+    <t>分部件3</t>
+  </si>
+  <si>
+    <t>分部件4</t>
+  </si>
+  <si>
+    <t>分部件5</t>
+  </si>
+  <si>
+    <t>分部件6</t>
+  </si>
+  <si>
+    <t>分部件7</t>
+  </si>
+  <si>
     <t>行业id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -382,12 +427,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -735,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,27 +794,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
@@ -843,7 +888,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -872,12 +917,12 @@
       <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -903,14 +948,16 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2"/>
@@ -931,14 +978,16 @@
         <v>44</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2"/>
@@ -952,7 +1001,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -977,7 +1028,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1000,269 +1053,343 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="M11" s="2"/>
+      <c r="N11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="5" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" s="5" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1270,9 +1397,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="M22:Q22"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/final database.xlsx
+++ b/final database.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>列名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -158,10 +153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户联系人employee－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>公司Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -320,6 +311,54 @@
   </si>
   <si>
     <t>例如:激光圆锯片基体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员employee－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业表industry－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单内容orders－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -437,8 +476,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,14 +508,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -479,14 +523,21 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -825,49 +876,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="17" max="17" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -893,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>2</v>
@@ -908,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
@@ -923,13 +974,13 @@
         <v>1</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -943,18 +994,18 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -963,7 +1014,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -971,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -987,32 +1038,32 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="8" t="s">
-        <v>76</v>
+      <c r="Q4" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1028,25 +1079,25 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -1060,30 +1111,30 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -1100,20 +1151,20 @@
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1139,13 +1190,13 @@
       <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -1157,7 +1208,7 @@
       <c r="E9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1169,13 +1220,13 @@
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="B10" s="3"/>
       <c r="M10" s="2"/>
       <c r="N10" s="4"/>
@@ -1184,99 +1235,113 @@
       <c r="Q10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:23">
+      <c r="B11" s="6"/>
       <c r="S11" s="2"/>
       <c r="T11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:23">
+      <c r="B12" s="6"/>
       <c r="S12" s="2"/>
       <c r="T12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:23">
+      <c r="B13" s="6"/>
       <c r="S13" s="2"/>
       <c r="T13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:23">
+      <c r="B14" s="6"/>
       <c r="S14" s="2"/>
       <c r="T14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:23">
+      <c r="B15" s="6"/>
       <c r="S15" s="2"/>
       <c r="T15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:23">
+      <c r="B16" s="6"/>
       <c r="S16" s="2"/>
       <c r="T16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:23">
+      <c r="B17" s="6"/>
       <c r="S17" s="2"/>
       <c r="T17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:23">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2</v>
@@ -1302,13 +1367,43 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -1320,31 +1415,63 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M21" s="2"/>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>20</v>
@@ -1354,13 +1481,27 @@
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1370,13 +1511,27 @@
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M24" s="2"/>
+      <c r="N24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1386,13 +1541,25 @@
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M25" s="2"/>
+      <c r="N25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1402,13 +1569,21 @@
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>14</v>
@@ -1418,13 +1593,17 @@
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -1434,13 +1613,18 @@
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
@@ -1448,24 +1632,36 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="S19:W19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/final database.xlsx
+++ b/final database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>列名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -205,39 +205,208 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>甲公司id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙公司id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表orders－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品表product－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业2</t>
+  </si>
+  <si>
+    <t>行业3</t>
+  </si>
+  <si>
+    <t>行业4</t>
+  </si>
+  <si>
+    <t>行业5</t>
+  </si>
+  <si>
+    <t>行业6</t>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件2</t>
+  </si>
+  <si>
+    <t>部件3</t>
+  </si>
+  <si>
+    <t>部件4</t>
+  </si>
+  <si>
+    <t>部件5</t>
+  </si>
+  <si>
+    <t>部件6</t>
+  </si>
+  <si>
+    <t>部件7</t>
+  </si>
+  <si>
+    <t>产品Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如:激光圆锯片基体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员employee－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业表industry－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>产品id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>甲公司id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙公司id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>图纸id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>下单日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交货日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单表orders－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品表product－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业</t>
+    <t>订单－产品表product－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须要有</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程表orders－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件及备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品字段表product_fields－－entity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -245,120 +414,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>行业1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业2</t>
-  </si>
-  <si>
-    <t>行业3</t>
-  </si>
-  <si>
-    <t>行业4</t>
-  </si>
-  <si>
-    <t>行业5</t>
-  </si>
-  <si>
-    <t>行业6</t>
-  </si>
-  <si>
-    <t>整体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部件2</t>
-  </si>
-  <si>
-    <t>部件3</t>
-  </si>
-  <si>
-    <t>部件4</t>
-  </si>
-  <si>
-    <t>部件5</t>
-  </si>
-  <si>
-    <t>部件6</t>
-  </si>
-  <si>
-    <t>部件7</t>
-  </si>
-  <si>
-    <t>产品Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如:激光圆锯片基体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职员employee－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业表industry－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>来公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单内容orders－－entity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交货时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单日期</t>
+    <t>产品id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如:金刚石锯片基体字段表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段－产品表product_related－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经存在？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品表名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 订单－产品state－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程字段表flows_fields－－entity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段－流程表product_related－－entity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,8 +537,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,8 +559,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -475,8 +615,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,8 +677,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -513,8 +704,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -526,6 +742,13 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -537,6 +760,13 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="K18" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -897,21 +1127,21 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="M1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="S1" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -1005,7 +1235,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1014,7 +1244,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1048,16 +1278,16 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1084,14 +1314,14 @@
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1121,14 +1351,14 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1151,14 +1381,14 @@
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1190,7 +1420,7 @@
       <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1220,7 +1450,7 @@
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1235,7 +1465,7 @@
       <c r="Q10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1245,7 +1475,7 @@
       <c r="B11" s="6"/>
       <c r="S11" s="2"/>
       <c r="T11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1255,7 +1485,7 @@
       <c r="B12" s="6"/>
       <c r="S12" s="2"/>
       <c r="T12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1265,7 +1495,7 @@
       <c r="B13" s="6"/>
       <c r="S13" s="2"/>
       <c r="T13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1275,165 +1505,252 @@
       <c r="B14" s="6"/>
       <c r="S14" s="2"/>
       <c r="T14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="B15" s="6"/>
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="G15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="M15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
       <c r="S15" s="2"/>
       <c r="T15" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="6"/>
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="B17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="S19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="T20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="U20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="V20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>19</v>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" t="s">
-        <v>80</v>
+      <c r="N21" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" t="s">
-        <v>80</v>
+      <c r="T21" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -1443,59 +1760,65 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="2"/>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="S22" s="2"/>
-      <c r="T22" t="s">
-        <v>83</v>
-      </c>
-      <c r="U22" s="2"/>
+      <c r="T22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>20</v>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>48</v>
+      <c r="H23" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>78</v>
+      <c r="N23" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="4" t="s">
-        <v>84</v>
+      <c r="T23" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -1503,29 +1826,26 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -1533,131 +1853,506 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="A29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="G29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="M29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="S33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="S34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="M44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="M45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="M47" s="2"/>
+      <c r="N47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="S33:W33"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:K19"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M19:Q19"/>
     <mergeCell ref="S19:W19"/>
+    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
